--- a/Project 1/Analysis_sheet.xlsx
+++ b/Project 1/Analysis_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal documents\IIT Online Madras\Diploma\Data Science\Tools in Data Science\IITM_Tools_In_Data_Science_Practice_Programming_Assignments\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161C4FB1-D0A6-41EF-9C9E-855613574537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA63FB4-720A-4D6F-B284-9AD4A881B87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="src" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,21 @@
     <sheet name="q5" sheetId="7" r:id="rId6"/>
     <sheet name="q8" sheetId="8" r:id="rId7"/>
     <sheet name="q7" sheetId="9" r:id="rId8"/>
+    <sheet name="q1" sheetId="10" r:id="rId9"/>
+    <sheet name="q15" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'q1'!$A$1:$G$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'q12'!$A$1:$G$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'q5'!$A$1:$I$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'q7'!$A$1:$H$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'q8'!$A$1:$H$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'q9'!$A$1:$D$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">src!$A$1:$J$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="204">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -681,6 +685,40 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Max difference</t>
+  </si>
+  <si>
+    <t>1. For the  given AC_NAME, Identify the candidate who had the greatest change in vote share compared to the previous election,
+   regardless of the gap between elections? [string]
+    - Do not consider NOTA as candidate (but NOTA votes are to be considered as part of the total votes)
+    - If no candidate has participated in two elections, then the answer will be NA
+    - If two candidates have the same vote share change, choose the candidate who came first alphabetically</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Total Votes</t>
+  </si>
+  <si>
+    <t>Vote Share</t>
+  </si>
+  <si>
+    <t>Vote Share Change</t>
+  </si>
+  <si>
+    <t>Is Max?</t>
+  </si>
+  <si>
+    <t>MAHESWAR BARO</t>
+  </si>
+  <si>
+    <t>15. For a given constituency, how many constituencies within the same state are less than 20 kms. Use Nominatim for this question.</t>
+  </si>
+  <si>
+    <t>Q15</t>
   </si>
 </sst>
 </file>
@@ -736,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -746,7 +784,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1990,7 +2027,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F174EC7B-4936-40EE-8997-B7FDD020B9E0}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F174EC7B-4936-40EE-8997-B7FDD020B9E0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2356,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5448,17 +5485,30 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D518ECD7-AC11-4D9D-8B2B-95D062F7B2CD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5DDE6D-821E-4946-8457-3241CFC9A1CC}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
@@ -5473,7 +5523,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="84" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B2" t="s">
@@ -5484,7 +5534,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B3" t="s">
@@ -5495,7 +5545,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B4" t="s">
@@ -5506,7 +5556,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B5" t="s">
@@ -5517,11 +5567,33 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B6" t="s">
         <v>193</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5567,23 +5639,23 @@
       <c r="A4" s="3">
         <v>1951</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>10409</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>22405</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3">
         <v>1951</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>10409</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>22405</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>F4/G4</f>
         <v>0.46458379825931712</v>
       </c>
@@ -5592,23 +5664,23 @@
       <c r="A5" s="3">
         <v>1962</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>17169</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>26310</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3">
         <v>1962</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>17169</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>26310</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" ref="H5:H14" si="0">F5/G5</f>
         <v>0.65256556442417335</v>
       </c>
@@ -5617,23 +5689,23 @@
       <c r="A6" s="3">
         <v>1967</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>5031</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>20051</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="3">
         <v>1967</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>5031</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>20051</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>0.25091017904343921</v>
       </c>
@@ -5642,23 +5714,23 @@
       <c r="A7" s="3">
         <v>1972</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>11360</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>31879</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="3">
         <v>1972</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>11360</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>31879</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>0.35634743875278396</v>
       </c>
@@ -5667,23 +5739,23 @@
       <c r="A8" s="3">
         <v>1978</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>25595</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>46394</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="3">
         <v>1978</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>25595</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>46394</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>0.55168771823942753</v>
       </c>
@@ -5692,23 +5764,23 @@
       <c r="A9" s="3">
         <v>1985</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>22187</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>55922</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="3">
         <v>1985</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>22187</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>55922</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>0.39674904331032512</v>
       </c>
@@ -5717,23 +5789,23 @@
       <c r="A10" s="3">
         <v>2001</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>27493</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>91640</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="3">
         <v>2001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>27493</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>91640</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>0.30001091226538629</v>
       </c>
@@ -5742,23 +5814,23 @@
       <c r="A11" s="3">
         <v>2006</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>27704</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>105987</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="3">
         <v>2006</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>27704</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>105987</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>0.26139054789738364</v>
       </c>
@@ -5767,23 +5839,23 @@
       <c r="A12" s="3">
         <v>2011</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>42550</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>113845</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="3">
         <v>2011</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>42550</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>113845</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>0.37375378804514908</v>
       </c>
@@ -5792,23 +5864,23 @@
       <c r="A13" s="3">
         <v>2016</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>47206</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>134015</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="3">
         <v>2016</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>47206</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>134015</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>0.35224415177405516</v>
       </c>
@@ -5817,23 +5889,23 @@
       <c r="A14" s="3">
         <v>2021</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>60815</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>148138</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="3">
         <v>2021</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>60815</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14">
         <v>148138</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>0.41052937126193145</v>
       </c>
@@ -5842,21 +5914,19 @@
       <c r="A15" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>60815</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>796586</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f>AVERAGE(H4:H14)</f>
         <v>0.39734295575212464</v>
       </c>
@@ -5872,7 +5942,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5895,13 +5965,13 @@
       <c r="A2" s="3">
         <v>1951</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>10409</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>22405</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>B2/C2</f>
         <v>0.46458379825931712</v>
       </c>
@@ -5910,13 +5980,13 @@
       <c r="A3" s="3">
         <v>1962</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>17169</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>26310</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D12" si="0">B3/C3</f>
         <v>0.65256556442417335</v>
       </c>
@@ -5925,13 +5995,13 @@
       <c r="A4" s="3">
         <v>1967</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>5031</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>20051</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0.25091017904343921</v>
       </c>
@@ -5940,13 +6010,13 @@
       <c r="A5" s="3">
         <v>1972</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>11360</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>31879</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>0.35634743875278396</v>
       </c>
@@ -5955,13 +6025,13 @@
       <c r="A6" s="3">
         <v>1978</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>25595</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>46394</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0.55168771823942753</v>
       </c>
@@ -5970,13 +6040,13 @@
       <c r="A7" s="3">
         <v>1985</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>22187</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>55922</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0.39674904331032512</v>
       </c>
@@ -5985,13 +6055,13 @@
       <c r="A8" s="3">
         <v>2001</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>27493</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>91640</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0.30001091226538629</v>
       </c>
@@ -6000,13 +6070,13 @@
       <c r="A9" s="3">
         <v>2006</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>27704</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>105987</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0.26139054789738364</v>
       </c>
@@ -6015,13 +6085,13 @@
       <c r="A10" s="3">
         <v>2011</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>42550</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>113845</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0.37375378804514908</v>
       </c>
@@ -6030,13 +6100,13 @@
       <c r="A11" s="3">
         <v>2016</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>47206</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>134015</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0.35224415177405516</v>
       </c>
@@ -6045,13 +6115,13 @@
       <c r="A12" s="3">
         <v>2021</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>60815</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>148138</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0.41052937126193145</v>
       </c>
@@ -6072,8 +6142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCD0A7E-99C4-46E7-856A-98F4874E16B4}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8684,13 +8754,13 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="10"/>
+    <col min="7" max="7" width="8.7265625" style="9"/>
     <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8713,7 +8783,7 @@
       <c r="F1" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>186</v>
       </c>
       <c r="H1" t="s">
@@ -8738,11 +8808,11 @@
         <f>IF(A2=A1, E1, COUNTIF(A:A, A2))</f>
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>C2/SUMIFS(C:C, A:A, A2)</f>
         <v>0.46458379825931712</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <f>IF(AND(D2=1, E2&gt;=2), F2-F3, 0)</f>
         <v>3.1243026110243266E-2</v>
       </c>
@@ -8750,7 +8820,7 @@
         <f>IF(MAX($G$2:$G$96)=G2,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -8770,11 +8840,11 @@
         <f t="shared" ref="E3:E66" si="1">IF(A3=A2, E2, COUNTIF(A:A, A3))</f>
         <v>3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F66" si="2">C3/SUMIFS(C:C, A:A, A3)</f>
         <v>0.43334077214907385</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f t="shared" ref="G3:G66" si="3">IF(AND(D3=1, E3&gt;=2), F3-F4, 0)</f>
         <v>0</v>
       </c>
@@ -8801,11 +8871,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="2"/>
         <v>0.10207542959160902</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8832,11 +8902,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="2"/>
         <v>0.65256556442417335</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f t="shared" si="3"/>
         <v>0.33717217787913345</v>
       </c>
@@ -8863,11 +8933,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="2"/>
         <v>0.3153933865450399</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8894,11 +8964,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="2"/>
         <v>3.2041049030786771E-2</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8925,11 +8995,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
         <v>0.25091017904343921</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f t="shared" si="3"/>
         <v>2.9973567403122015E-2</v>
       </c>
@@ -8956,11 +9026,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="2"/>
         <v>0.22093661164031719</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8987,11 +9057,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="2"/>
         <v>0.20976509899755624</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9018,11 +9088,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="2"/>
         <v>0.20278290359583062</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9049,11 +9119,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="2"/>
         <v>0.11560520672285672</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9080,11 +9150,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
         <v>0.35634743875278396</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <f t="shared" si="3"/>
         <v>0.20295492330374226</v>
       </c>
@@ -9111,11 +9181,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="2"/>
         <v>0.1533925154490417</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9142,11 +9212,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" si="2"/>
         <v>0.11455817309200414</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9173,11 +9243,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" si="2"/>
         <v>0.10941372063113648</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9204,11 +9274,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f t="shared" si="2"/>
         <v>8.6702845133159762E-2</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9235,11 +9305,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f t="shared" si="2"/>
         <v>8.3032717462906622E-2</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9266,11 +9336,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
         <v>6.3270491546158908E-2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9297,11 +9367,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
         <v>3.3282097932808431E-2</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9328,11 +9398,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f t="shared" si="2"/>
         <v>0.55168771823942753</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <f t="shared" si="3"/>
         <v>0.35409751260938915</v>
       </c>
@@ -9360,11 +9430,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f t="shared" si="2"/>
         <v>0.19759020563003837</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9391,11 +9461,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f t="shared" si="2"/>
         <v>0.10503513385351554</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9422,11 +9492,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f t="shared" si="2"/>
         <v>8.9149458981764879E-2</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9453,11 +9523,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <f t="shared" si="2"/>
         <v>5.6537483295253696E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9484,11 +9554,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="2"/>
         <v>0.39674904331032512</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <f t="shared" si="3"/>
         <v>0.12326097063767394</v>
       </c>
@@ -9515,11 +9585,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f t="shared" si="2"/>
         <v>0.27348807267265118</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9546,11 +9616,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <f t="shared" si="2"/>
         <v>0.18613425843138656</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9577,11 +9647,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <f t="shared" si="2"/>
         <v>3.6854905046314508E-2</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9608,11 +9678,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <f t="shared" si="2"/>
         <v>3.5567397446443258E-2</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9639,11 +9709,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <f t="shared" si="2"/>
         <v>2.8933156897106686E-2</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9670,11 +9740,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <f t="shared" si="2"/>
         <v>1.7756875648224313E-2</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9701,11 +9771,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <f t="shared" si="2"/>
         <v>1.344730159865527E-2</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9732,11 +9802,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <f t="shared" si="2"/>
         <v>1.1068988948893101E-2</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9763,11 +9833,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <f t="shared" si="2"/>
         <v>0.30001091226538629</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <f t="shared" si="3"/>
         <v>3.3620689655172398E-2</v>
       </c>
@@ -9794,11 +9864,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <f t="shared" si="2"/>
         <v>0.26639022261021389</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9825,11 +9895,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <f t="shared" si="2"/>
         <v>0.18886948930597991</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9856,11 +9926,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <f t="shared" si="2"/>
         <v>0.18307507638585771</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9887,11 +9957,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <f t="shared" si="2"/>
         <v>2.9375818419903971E-2</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9918,11 +9988,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <f t="shared" si="2"/>
         <v>1.2832824094281972E-2</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9949,11 +10019,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <f t="shared" si="2"/>
         <v>9.1553906591008288E-3</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9980,11 +10050,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <f t="shared" si="2"/>
         <v>4.0266259275425582E-3</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10011,11 +10081,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <f t="shared" si="2"/>
         <v>3.4482758620689655E-3</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10042,11 +10112,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <f t="shared" si="2"/>
         <v>2.8153644696639023E-3</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10073,11 +10143,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f t="shared" si="2"/>
         <v>0.26139054789738364</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <f t="shared" si="3"/>
         <v>3.9108569918952313E-2</v>
       </c>
@@ -10104,11 +10174,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <f t="shared" si="2"/>
         <v>0.22228197797843133</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10135,11 +10205,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <f t="shared" si="2"/>
         <v>0.19918480568371594</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10166,11 +10236,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <f t="shared" si="2"/>
         <v>8.4510364478662475E-2</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10197,11 +10267,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <f t="shared" si="2"/>
         <v>7.1263456839046294E-2</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10228,11 +10298,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <f t="shared" si="2"/>
         <v>6.1328276109334161E-2</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10259,11 +10329,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <f t="shared" si="2"/>
         <v>4.1523960485719949E-2</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10290,11 +10360,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <f t="shared" si="2"/>
         <v>3.3711681621330918E-2</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10321,11 +10391,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <f t="shared" si="2"/>
         <v>1.0189928953550908E-2</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10352,11 +10422,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <f t="shared" si="2"/>
         <v>7.6235764763603079E-3</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10383,11 +10453,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <f t="shared" si="2"/>
         <v>6.9914234764640948E-3</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10414,11 +10484,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <f t="shared" si="2"/>
         <v>0.37375378804514908</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="9">
         <f t="shared" si="3"/>
         <v>2.4665114849136971E-2</v>
       </c>
@@ -10445,11 +10515,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <f t="shared" si="2"/>
         <v>0.34908867319601211</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10476,11 +10546,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <f t="shared" si="2"/>
         <v>0.13511353155606307</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10507,11 +10577,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <f t="shared" si="2"/>
         <v>9.0913083578549783E-2</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10538,11 +10608,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <f t="shared" si="2"/>
         <v>2.0958320523518821E-2</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10569,11 +10639,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <f t="shared" si="2"/>
         <v>9.750098818569107E-3</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10600,11 +10670,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <f t="shared" si="2"/>
         <v>9.600772980807238E-3</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10631,11 +10701,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6">
         <f t="shared" si="2"/>
         <v>5.8061399270938558E-3</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10662,11 +10732,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <f t="shared" si="2"/>
         <v>5.0155913742369008E-3</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10693,11 +10763,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6">
         <f t="shared" si="2"/>
         <v>0.35224415177405516</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="9">
         <f t="shared" si="3"/>
         <v>0.13148528149833974</v>
       </c>
@@ -10724,11 +10794,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="6">
         <f t="shared" si="2"/>
         <v>0.22075887027571542</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10755,11 +10825,11 @@
         <f t="shared" ref="E67:E96" si="6">IF(A67=A66, E66, COUNTIF(A:A, A67))</f>
         <v>17</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="6">
         <f t="shared" ref="F67:F96" si="7">C67/SUMIFS(C:C, A:A, A67)</f>
         <v>0.18122598216617541</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="9">
         <f t="shared" ref="G67:G96" si="8">IF(AND(D67=1, E67&gt;=2), F67-F68, 0)</f>
         <v>0</v>
       </c>
@@ -10786,11 +10856,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <f t="shared" si="7"/>
         <v>8.4647240980487259E-2</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -10817,11 +10887,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <f t="shared" si="7"/>
         <v>7.7357012274745368E-2</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -10848,11 +10918,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6">
         <f t="shared" si="7"/>
         <v>1.6699623176510092E-2</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -10879,11 +10949,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="6">
         <f t="shared" si="7"/>
         <v>1.052867216356378E-2</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -10910,11 +10980,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="6">
         <f t="shared" si="7"/>
         <v>8.9467596910793572E-3</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -10941,11 +11011,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <f t="shared" si="7"/>
         <v>8.9467596910793572E-3</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -10972,11 +11042,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <f t="shared" si="7"/>
         <v>8.5065104652464283E-3</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11003,11 +11073,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <f t="shared" si="7"/>
         <v>5.8426295563929415E-3</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11034,11 +11104,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <f t="shared" si="7"/>
         <v>5.2829907099951499E-3</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11065,11 +11135,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <f t="shared" si="7"/>
         <v>4.7308137148826621E-3</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11096,11 +11166,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <f t="shared" si="7"/>
         <v>4.4323396634705073E-3</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11127,11 +11197,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6">
         <f t="shared" si="7"/>
         <v>3.9622430324963622E-3</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11158,11 +11228,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="6">
         <f t="shared" si="7"/>
         <v>3.6115360220870798E-3</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11189,11 +11259,11 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="6">
         <f t="shared" si="7"/>
         <v>2.2758646420176845E-3</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11220,11 +11290,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="6">
         <f t="shared" si="7"/>
         <v>0.41052937126193145</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="9">
         <f t="shared" si="8"/>
         <v>4.7941784012204836E-2</v>
       </c>
@@ -11251,11 +11321,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="6">
         <f t="shared" si="7"/>
         <v>0.36258758724972662</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11282,11 +11352,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="6">
         <f t="shared" si="7"/>
         <v>0.11388705126301152</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11313,11 +11383,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <f t="shared" si="7"/>
         <v>1.9630344678610485E-2</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11344,11 +11414,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="6">
         <f t="shared" si="7"/>
         <v>1.7206928674614212E-2</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11375,11 +11445,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="6">
         <f t="shared" si="7"/>
         <v>1.6099852839919535E-2</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11406,11 +11476,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="6">
         <f t="shared" si="7"/>
         <v>1.4047712268290378E-2</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11437,11 +11507,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="6">
         <f t="shared" si="7"/>
         <v>8.9376122264375104E-3</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11468,11 +11538,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="6">
         <f t="shared" si="7"/>
         <v>8.4043256963101977E-3</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11499,11 +11569,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="6">
         <f t="shared" si="7"/>
         <v>6.5614494592879614E-3</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11530,11 +11600,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6">
         <f t="shared" si="7"/>
         <v>5.6501370343868557E-3</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11561,11 +11631,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="6">
         <f t="shared" si="7"/>
         <v>5.6501370343868557E-3</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11592,11 +11662,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <f t="shared" si="7"/>
         <v>4.6308172109789519E-3</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11623,11 +11693,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <f t="shared" si="7"/>
         <v>3.2942256544573304E-3</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11654,11 +11724,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <f t="shared" si="7"/>
         <v>2.8824474476501641E-3</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11679,7 +11749,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G1048576"/>
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11731,7 +11801,7 @@
         <f>IF(A2=A1, E1, COUNTIF(A:A, A2))</f>
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>C2/SUMIFS(C:C, A:A, A2)</f>
         <v>0.46458379825931712</v>
       </c>
@@ -11739,7 +11809,7 @@
         <f>IF(F2&lt;$H$2,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
@@ -11762,7 +11832,7 @@
         <f t="shared" ref="E3:E66" si="1">IF(A3=A2, E2, COUNTIF(A:A, A3))</f>
         <v>3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F66" si="2">C3/SUMIFS(C:C, A:A, A3)</f>
         <v>0.43334077214907385</v>
       </c>
@@ -11789,7 +11859,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="2"/>
         <v>0.10207542959160902</v>
       </c>
@@ -11816,7 +11886,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="2"/>
         <v>0.65256556442417335</v>
       </c>
@@ -11843,7 +11913,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="2"/>
         <v>0.3153933865450399</v>
       </c>
@@ -11870,7 +11940,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="2"/>
         <v>3.2041049030786771E-2</v>
       </c>
@@ -11897,7 +11967,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
         <v>0.25091017904343921</v>
       </c>
@@ -11924,7 +11994,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="2"/>
         <v>0.22093661164031719</v>
       </c>
@@ -11951,7 +12021,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="2"/>
         <v>0.20976509899755624</v>
       </c>
@@ -11978,7 +12048,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="2"/>
         <v>0.20278290359583062</v>
       </c>
@@ -12005,7 +12075,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="2"/>
         <v>0.11560520672285672</v>
       </c>
@@ -12032,7 +12102,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
         <v>0.35634743875278396</v>
       </c>
@@ -12059,7 +12129,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="2"/>
         <v>0.1533925154490417</v>
       </c>
@@ -12086,7 +12156,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" si="2"/>
         <v>0.11455817309200414</v>
       </c>
@@ -12113,7 +12183,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" si="2"/>
         <v>0.10941372063113648</v>
       </c>
@@ -12140,7 +12210,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f t="shared" si="2"/>
         <v>8.6702845133159762E-2</v>
       </c>
@@ -12167,7 +12237,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f t="shared" si="2"/>
         <v>8.3032717462906622E-2</v>
       </c>
@@ -12194,7 +12264,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
         <v>6.3270491546158908E-2</v>
       </c>
@@ -12221,7 +12291,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
         <v>3.3282097932808431E-2</v>
       </c>
@@ -12248,7 +12318,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f t="shared" si="2"/>
         <v>0.55168771823942753</v>
       </c>
@@ -12275,7 +12345,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f t="shared" si="2"/>
         <v>0.19759020563003837</v>
       </c>
@@ -12302,7 +12372,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f t="shared" si="2"/>
         <v>0.10503513385351554</v>
       </c>
@@ -12329,7 +12399,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f t="shared" si="2"/>
         <v>8.9149458981764879E-2</v>
       </c>
@@ -12356,7 +12426,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <f t="shared" si="2"/>
         <v>5.6537483295253696E-2</v>
       </c>
@@ -12383,7 +12453,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="2"/>
         <v>0.39674904331032512</v>
       </c>
@@ -12410,7 +12480,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f t="shared" si="2"/>
         <v>0.27348807267265118</v>
       </c>
@@ -12437,7 +12507,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <f t="shared" si="2"/>
         <v>0.18613425843138656</v>
       </c>
@@ -12464,7 +12534,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <f t="shared" si="2"/>
         <v>3.6854905046314508E-2</v>
       </c>
@@ -12491,7 +12561,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <f t="shared" si="2"/>
         <v>3.5567397446443258E-2</v>
       </c>
@@ -12518,7 +12588,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <f t="shared" si="2"/>
         <v>2.8933156897106686E-2</v>
       </c>
@@ -12545,7 +12615,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <f t="shared" si="2"/>
         <v>1.7756875648224313E-2</v>
       </c>
@@ -12572,7 +12642,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <f t="shared" si="2"/>
         <v>1.344730159865527E-2</v>
       </c>
@@ -12599,7 +12669,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <f t="shared" si="2"/>
         <v>1.1068988948893101E-2</v>
       </c>
@@ -12626,7 +12696,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <f t="shared" si="2"/>
         <v>0.30001091226538629</v>
       </c>
@@ -12653,7 +12723,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <f t="shared" si="2"/>
         <v>0.26639022261021389</v>
       </c>
@@ -12680,7 +12750,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <f t="shared" si="2"/>
         <v>0.18886948930597991</v>
       </c>
@@ -12707,7 +12777,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <f t="shared" si="2"/>
         <v>0.18307507638585771</v>
       </c>
@@ -12734,7 +12804,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <f t="shared" si="2"/>
         <v>2.9375818419903971E-2</v>
       </c>
@@ -12761,7 +12831,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <f t="shared" si="2"/>
         <v>1.2832824094281972E-2</v>
       </c>
@@ -12788,7 +12858,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <f t="shared" si="2"/>
         <v>9.1553906591008288E-3</v>
       </c>
@@ -12815,7 +12885,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <f t="shared" si="2"/>
         <v>4.0266259275425582E-3</v>
       </c>
@@ -12842,7 +12912,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <f t="shared" si="2"/>
         <v>3.4482758620689655E-3</v>
       </c>
@@ -12869,7 +12939,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <f t="shared" si="2"/>
         <v>2.8153644696639023E-3</v>
       </c>
@@ -12896,7 +12966,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f t="shared" si="2"/>
         <v>0.26139054789738364</v>
       </c>
@@ -12923,7 +12993,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <f t="shared" si="2"/>
         <v>0.22228197797843133</v>
       </c>
@@ -12950,7 +13020,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <f t="shared" si="2"/>
         <v>0.19918480568371594</v>
       </c>
@@ -12977,7 +13047,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <f t="shared" si="2"/>
         <v>8.4510364478662475E-2</v>
       </c>
@@ -13004,7 +13074,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <f t="shared" si="2"/>
         <v>7.1263456839046294E-2</v>
       </c>
@@ -13031,7 +13101,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <f t="shared" si="2"/>
         <v>6.1328276109334161E-2</v>
       </c>
@@ -13058,7 +13128,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <f t="shared" si="2"/>
         <v>4.1523960485719949E-2</v>
       </c>
@@ -13085,7 +13155,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <f t="shared" si="2"/>
         <v>3.3711681621330918E-2</v>
       </c>
@@ -13112,7 +13182,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <f t="shared" si="2"/>
         <v>1.0189928953550908E-2</v>
       </c>
@@ -13139,7 +13209,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <f t="shared" si="2"/>
         <v>7.6235764763603079E-3</v>
       </c>
@@ -13166,7 +13236,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <f t="shared" si="2"/>
         <v>6.9914234764640948E-3</v>
       </c>
@@ -13193,7 +13263,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <f t="shared" si="2"/>
         <v>0.37375378804514908</v>
       </c>
@@ -13220,7 +13290,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <f t="shared" si="2"/>
         <v>0.34908867319601211</v>
       </c>
@@ -13247,7 +13317,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <f t="shared" si="2"/>
         <v>0.13511353155606307</v>
       </c>
@@ -13274,7 +13344,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <f t="shared" si="2"/>
         <v>9.0913083578549783E-2</v>
       </c>
@@ -13301,7 +13371,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <f t="shared" si="2"/>
         <v>2.0958320523518821E-2</v>
       </c>
@@ -13328,7 +13398,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <f t="shared" si="2"/>
         <v>9.750098818569107E-3</v>
       </c>
@@ -13355,7 +13425,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <f t="shared" si="2"/>
         <v>9.600772980807238E-3</v>
       </c>
@@ -13382,7 +13452,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6">
         <f t="shared" si="2"/>
         <v>5.8061399270938558E-3</v>
       </c>
@@ -13409,7 +13479,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <f t="shared" si="2"/>
         <v>5.0155913742369008E-3</v>
       </c>
@@ -13436,7 +13506,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6">
         <f t="shared" si="2"/>
         <v>0.35224415177405516</v>
       </c>
@@ -13463,7 +13533,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="6">
         <f t="shared" si="2"/>
         <v>0.22075887027571542</v>
       </c>
@@ -13490,7 +13560,7 @@
         <f t="shared" ref="E67:E96" si="5">IF(A67=A66, E66, COUNTIF(A:A, A67))</f>
         <v>17</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="6">
         <f t="shared" ref="F67:F96" si="6">C67/SUMIFS(C:C, A:A, A67)</f>
         <v>0.18122598216617541</v>
       </c>
@@ -13517,7 +13587,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <f t="shared" si="6"/>
         <v>8.4647240980487259E-2</v>
       </c>
@@ -13544,7 +13614,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <f t="shared" si="6"/>
         <v>7.7357012274745368E-2</v>
       </c>
@@ -13571,7 +13641,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6">
         <f t="shared" si="6"/>
         <v>1.6699623176510092E-2</v>
       </c>
@@ -13598,7 +13668,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="6">
         <f t="shared" si="6"/>
         <v>1.052867216356378E-2</v>
       </c>
@@ -13625,7 +13695,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="6">
         <f t="shared" si="6"/>
         <v>8.9467596910793572E-3</v>
       </c>
@@ -13648,7 +13718,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <f t="shared" si="6"/>
         <v>8.9467596910793572E-3</v>
       </c>
@@ -13671,7 +13741,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <f t="shared" si="6"/>
         <v>8.5065104652464283E-3</v>
       </c>
@@ -13698,7 +13768,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <f t="shared" si="6"/>
         <v>5.8426295563929415E-3</v>
       </c>
@@ -13725,7 +13795,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <f t="shared" si="6"/>
         <v>5.2829907099951499E-3</v>
       </c>
@@ -13752,7 +13822,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <f t="shared" si="6"/>
         <v>4.7308137148826621E-3</v>
       </c>
@@ -13779,7 +13849,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <f t="shared" si="6"/>
         <v>4.4323396634705073E-3</v>
       </c>
@@ -13806,7 +13876,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6">
         <f t="shared" si="6"/>
         <v>3.9622430324963622E-3</v>
       </c>
@@ -13833,7 +13903,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="6">
         <f t="shared" si="6"/>
         <v>3.6115360220870798E-3</v>
       </c>
@@ -13860,7 +13930,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="6">
         <f t="shared" si="6"/>
         <v>2.2758646420176845E-3</v>
       </c>
@@ -13887,7 +13957,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="6">
         <f t="shared" si="6"/>
         <v>0.41052937126193145</v>
       </c>
@@ -13914,7 +13984,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="6">
         <f t="shared" si="6"/>
         <v>0.36258758724972662</v>
       </c>
@@ -13941,7 +14011,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="6">
         <f t="shared" si="6"/>
         <v>0.11388705126301152</v>
       </c>
@@ -13968,7 +14038,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <f t="shared" si="6"/>
         <v>1.9630344678610485E-2</v>
       </c>
@@ -13995,7 +14065,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="6">
         <f t="shared" si="6"/>
         <v>1.7206928674614212E-2</v>
       </c>
@@ -14022,7 +14092,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="6">
         <f t="shared" si="6"/>
         <v>1.6099852839919535E-2</v>
       </c>
@@ -14049,7 +14119,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="6">
         <f t="shared" si="6"/>
         <v>1.4047712268290378E-2</v>
       </c>
@@ -14076,7 +14146,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="6">
         <f t="shared" si="6"/>
         <v>8.9376122264375104E-3</v>
       </c>
@@ -14099,7 +14169,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="6">
         <f t="shared" si="6"/>
         <v>8.4043256963101977E-3</v>
       </c>
@@ -14126,7 +14196,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="6">
         <f t="shared" si="6"/>
         <v>6.5614494592879614E-3</v>
       </c>
@@ -14153,7 +14223,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6">
         <f t="shared" si="6"/>
         <v>5.6501370343868557E-3</v>
       </c>
@@ -14180,7 +14250,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="6">
         <f t="shared" si="6"/>
         <v>5.6501370343868557E-3</v>
       </c>
@@ -14207,7 +14277,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <f t="shared" si="6"/>
         <v>4.6308172109789519E-3</v>
       </c>
@@ -14234,7 +14304,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <f t="shared" si="6"/>
         <v>3.2942256544573304E-3</v>
       </c>
@@ -14261,7 +14331,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <f t="shared" si="6"/>
         <v>2.8824474476501641E-3</v>
       </c>
@@ -14289,10 +14359,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC78F84-2558-4DF7-B4B5-6CDAAFF23FF7}">
-  <dimension ref="A1:E96"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14300,7 +14371,7 @@
     <col min="2" max="2" width="34.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -14316,8 +14387,11 @@
       <c r="E1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1951</v>
       </c>
@@ -14335,8 +14409,16 @@
         <f>IF(A2=A1, E1, COUNTIF(A:A, A2))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <f>IF(AND(D2=1, E2&gt;=2), SUMIFS(C:C, A:A, A2, D:D, 1) - SUMIFS(C:C, A:A, A2, D:D, E2), 0)</f>
+        <v>8122</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(MAX($F$2:$F$96)=F2,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1951</v>
       </c>
@@ -14354,8 +14436,16 @@
         <f t="shared" ref="E3:E66" si="1">IF(A3=A2, E2, COUNTIF(A:A, A3))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">IF(AND(D3=1, E3&gt;=2), SUMIFS(C:C, A:A, A3, D:D, 1) - SUMIFS(C:C, A:A, A3, D:D, E3), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="3">IF(MAX($F$2:$F$96)=F3,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1951</v>
       </c>
@@ -14373,8 +14463,16 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1962</v>
       </c>
@@ -14392,8 +14490,16 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>16326</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1962</v>
       </c>
@@ -14411,8 +14517,16 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1962</v>
       </c>
@@ -14430,8 +14544,16 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1967</v>
       </c>
@@ -14449,8 +14571,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>2713</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1967</v>
       </c>
@@ -14468,8 +14598,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1967</v>
       </c>
@@ -14487,8 +14625,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1967</v>
       </c>
@@ -14506,8 +14652,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1967</v>
       </c>
@@ -14525,8 +14679,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1972</v>
       </c>
@@ -14544,8 +14706,16 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>10299</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1972</v>
       </c>
@@ -14563,8 +14733,16 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1972</v>
       </c>
@@ -14582,8 +14760,16 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1972</v>
       </c>
@@ -14601,8 +14787,16 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1972</v>
       </c>
@@ -14620,8 +14814,16 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1972</v>
       </c>
@@ -14639,8 +14841,16 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1972</v>
       </c>
@@ -14658,8 +14868,16 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1972</v>
       </c>
@@ -14677,8 +14895,16 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1978</v>
       </c>
@@ -14696,8 +14922,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>22972</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1978</v>
       </c>
@@ -14715,8 +14949,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1978</v>
       </c>
@@ -14734,8 +14976,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1978</v>
       </c>
@@ -14753,8 +15003,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1978</v>
       </c>
@@ -14772,8 +15030,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1985</v>
       </c>
@@ -14791,8 +15057,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>21568</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1985</v>
       </c>
@@ -14810,8 +15084,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1985</v>
       </c>
@@ -14829,8 +15111,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1985</v>
       </c>
@@ -14848,8 +15138,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1985</v>
       </c>
@@ -14867,8 +15165,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1985</v>
       </c>
@@ -14886,8 +15192,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1985</v>
       </c>
@@ -14905,8 +15219,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1985</v>
       </c>
@@ -14924,8 +15246,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1985</v>
       </c>
@@ -14943,8 +15273,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2001</v>
       </c>
@@ -14962,8 +15300,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>27235</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2001</v>
       </c>
@@ -14981,8 +15327,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2001</v>
       </c>
@@ -15000,8 +15354,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2001</v>
       </c>
@@ -15019,8 +15381,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2001</v>
       </c>
@@ -15038,8 +15408,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2001</v>
       </c>
@@ -15057,8 +15435,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2001</v>
       </c>
@@ -15076,8 +15462,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2001</v>
       </c>
@@ -15095,8 +15489,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2001</v>
       </c>
@@ -15114,8 +15516,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2001</v>
       </c>
@@ -15133,8 +15543,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2006</v>
       </c>
@@ -15152,8 +15570,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>26963</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2006</v>
       </c>
@@ -15171,8 +15597,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2006</v>
       </c>
@@ -15190,8 +15624,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2006</v>
       </c>
@@ -15209,8 +15651,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2006</v>
       </c>
@@ -15228,8 +15678,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2006</v>
       </c>
@@ -15247,8 +15705,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2006</v>
       </c>
@@ -15266,8 +15732,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2006</v>
       </c>
@@ -15285,8 +15759,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2006</v>
       </c>
@@ -15304,8 +15786,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2006</v>
       </c>
@@ -15323,8 +15813,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2006</v>
       </c>
@@ -15342,8 +15840,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2011</v>
       </c>
@@ -15361,8 +15867,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>41979</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2011</v>
       </c>
@@ -15380,8 +15894,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2011</v>
       </c>
@@ -15399,8 +15921,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2011</v>
       </c>
@@ -15418,8 +15948,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2011</v>
       </c>
@@ -15437,8 +15975,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2011</v>
       </c>
@@ -15456,8 +16002,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2011</v>
       </c>
@@ -15475,8 +16029,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -15494,8 +16056,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -15513,8 +16083,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2016</v>
       </c>
@@ -15532,8 +16110,16 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>46901</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2016</v>
       </c>
@@ -15551,8 +16137,16 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2016</v>
       </c>
@@ -15563,15 +16157,23 @@
         <v>24287</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D96" si="2">IF(A67=A66, D66+1, 1)</f>
+        <f t="shared" ref="D67:D96" si="4">IF(A67=A66, D66+1, 1)</f>
         <v>3</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E96" si="3">IF(A67=A66, E66, COUNTIF(A:A, A67))</f>
+        <f t="shared" ref="E67:E96" si="5">IF(A67=A66, E66, COUNTIF(A:A, A67))</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <f t="shared" ref="F67:F96" si="6">IF(AND(D67=1, E67&gt;=2), SUMIFS(C:C, A:A, A67, D:D, 1) - SUMIFS(C:C, A:A, A67, D:D, E67), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G96" si="7">IF(MAX($F$2:$F$96)=F67,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2016</v>
       </c>
@@ -15582,15 +16184,23 @@
         <v>11344</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2016</v>
       </c>
@@ -15601,15 +16211,23 @@
         <v>10367</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2016</v>
       </c>
@@ -15620,15 +16238,23 @@
         <v>2238</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2016</v>
       </c>
@@ -15639,15 +16265,23 @@
         <v>1411</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2016</v>
       </c>
@@ -15658,15 +16292,23 @@
         <v>1199</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2016</v>
       </c>
@@ -15677,15 +16319,23 @@
         <v>1199</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2016</v>
       </c>
@@ -15696,15 +16346,23 @@
         <v>1140</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2016</v>
       </c>
@@ -15715,15 +16373,23 @@
         <v>783</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2016</v>
       </c>
@@ -15734,15 +16400,23 @@
         <v>708</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2016</v>
       </c>
@@ -15753,15 +16427,23 @@
         <v>634</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2016</v>
       </c>
@@ -15772,15 +16454,23 @@
         <v>594</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2016</v>
       </c>
@@ -15791,15 +16481,23 @@
         <v>531</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2016</v>
       </c>
@@ -15810,15 +16508,23 @@
         <v>484</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2016</v>
       </c>
@@ -15829,15 +16535,23 @@
         <v>305</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2021</v>
       </c>
@@ -15848,15 +16562,23 @@
         <v>60815</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <f t="shared" si="6"/>
+        <v>60388</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2021</v>
       </c>
@@ -15867,15 +16589,23 @@
         <v>53713</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2021</v>
       </c>
@@ -15886,15 +16616,23 @@
         <v>16871</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2021</v>
       </c>
@@ -15905,15 +16643,23 @@
         <v>2908</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2021</v>
       </c>
@@ -15924,15 +16670,23 @@
         <v>2549</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2021</v>
       </c>
@@ -15943,15 +16697,23 @@
         <v>2385</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2021</v>
       </c>
@@ -15962,15 +16724,23 @@
         <v>2081</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2021</v>
       </c>
@@ -15981,15 +16751,23 @@
         <v>1324</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -16000,15 +16778,23 @@
         <v>1245</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2021</v>
       </c>
@@ -16019,15 +16805,23 @@
         <v>972</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -16038,15 +16832,23 @@
         <v>837</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2021</v>
       </c>
@@ -16057,15 +16859,23 @@
         <v>837</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2021</v>
       </c>
@@ -16076,15 +16886,23 @@
         <v>686</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2021</v>
       </c>
@@ -16095,15 +16913,23 @@
         <v>488</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2021</v>
       </c>
@@ -16114,15 +16940,2650 @@
         <v>427</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
+      <c r="F96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H96" xr:uid="{6FC78F84-2558-4DF7-B4B5-6CDAAFF23FF7}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE36265-D5E3-4991-ADB9-18E3C9C01DD7}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1967</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5031</v>
+      </c>
+      <c r="D2">
+        <f>SUMIF(A:A, A2, C:C)</f>
+        <v>20051</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2/D2</f>
+        <v>0.25091017904343921</v>
+      </c>
+      <c r="F2" s="9">
+        <f>IF(AND(B2=B1, A2&gt;A1), ABS(E2 - E1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(F2=MAX($F$2:$F$96),"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1962</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4">
+        <v>17169</v>
+      </c>
+      <c r="D3">
+        <f>SUMIF(A:A, A3, C:C)</f>
+        <v>26310</v>
+      </c>
+      <c r="E3" s="9">
+        <f>C3/D3</f>
+        <v>0.65256556442417335</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F66" si="0">IF(AND(B3=B2, A3&gt;A2), ABS(E3 - E2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="1">IF(F3=MAX($F$2:$F$96),"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1951</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10409</v>
+      </c>
+      <c r="D4">
+        <f>SUMIF(A:A, A4, C:C)</f>
+        <v>22405</v>
+      </c>
+      <c r="E4" s="9">
+        <f>C4/D4</f>
+        <v>0.46458379825931712</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>60815</v>
+      </c>
+      <c r="D5">
+        <f>SUMIF(A:A, A5, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E5" s="9">
+        <f>C5/D5</f>
+        <v>0.41052937126193145</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1972</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="4">
+        <v>11360</v>
+      </c>
+      <c r="D6">
+        <f>SUMIF(A:A, A6, C:C)</f>
+        <v>31879</v>
+      </c>
+      <c r="E6" s="9">
+        <f>C6/D6</f>
+        <v>0.35634743875278396</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4">
+        <v>27704</v>
+      </c>
+      <c r="D7">
+        <f>SUMIF(A:A, A7, C:C)</f>
+        <v>105987</v>
+      </c>
+      <c r="E7" s="9">
+        <f>C7/D7</f>
+        <v>0.26139054789738364</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="4">
+        <v>47206</v>
+      </c>
+      <c r="D8">
+        <f>SUMIF(A:A, A8, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E8" s="9">
+        <f>C8/D8</f>
+        <v>0.35224415177405516</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>9.0853603876671518E-2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1985</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="4">
+        <v>22187</v>
+      </c>
+      <c r="D9">
+        <f>SUMIF(A:A, A9, C:C)</f>
+        <v>55922</v>
+      </c>
+      <c r="E9" s="9">
+        <f>C9/D9</f>
+        <v>0.39674904331032512</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="4">
+        <v>42550</v>
+      </c>
+      <c r="D10">
+        <f>SUMIF(A:A, A10, C:C)</f>
+        <v>113845</v>
+      </c>
+      <c r="E10" s="9">
+        <f>C10/D10</f>
+        <v>0.37375378804514908</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1978</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="4">
+        <v>25595</v>
+      </c>
+      <c r="D11">
+        <f>SUMIF(A:A, A11, C:C)</f>
+        <v>46394</v>
+      </c>
+      <c r="E11" s="9">
+        <f>C11/D11</f>
+        <v>0.55168771823942753</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="4">
+        <v>27493</v>
+      </c>
+      <c r="D12">
+        <f>SUMIF(A:A, A12, C:C)</f>
+        <v>91640</v>
+      </c>
+      <c r="E12" s="9">
+        <f>C12/D12</f>
+        <v>0.30001091226538629</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="4">
+        <v>258</v>
+      </c>
+      <c r="D13">
+        <f>SUMIF(A:A, A13, C:C)</f>
+        <v>91640</v>
+      </c>
+      <c r="E13" s="9">
+        <f>C13/D13</f>
+        <v>2.8153644696639023E-3</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4">
+        <v>783</v>
+      </c>
+      <c r="D14">
+        <f>SUMIF(A:A, A14, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E14" s="9">
+        <f>C14/D14</f>
+        <v>5.8426295563929415E-3</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2021</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4">
+        <v>972</v>
+      </c>
+      <c r="D15">
+        <f>SUMIF(A:A, A15, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E15" s="9">
+        <f>C15/D15</f>
+        <v>6.5614494592879614E-3</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="4">
+        <v>808</v>
+      </c>
+      <c r="D16">
+        <f>SUMIF(A:A, A16, C:C)</f>
+        <v>105987</v>
+      </c>
+      <c r="E16" s="9">
+        <f>C16/D16</f>
+        <v>7.6235764763603079E-3</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="4">
+        <v>708</v>
+      </c>
+      <c r="D17">
+        <f>SUMIF(A:A, A17, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E17" s="9">
+        <f>C17/D17</f>
+        <v>5.2829907099951499E-3</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="4">
+        <v>741</v>
+      </c>
+      <c r="D18">
+        <f>SUMIF(A:A, A18, C:C)</f>
+        <v>105987</v>
+      </c>
+      <c r="E18" s="9">
+        <f>C18/D18</f>
+        <v>6.9914234764640948E-3</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2021</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4">
+        <v>837</v>
+      </c>
+      <c r="D19">
+        <f>SUMIF(A:A, A19, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E19" s="9">
+        <f>C19/D19</f>
+        <v>5.6501370343868557E-3</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="4">
+        <v>634</v>
+      </c>
+      <c r="D20">
+        <f>SUMIF(A:A, A20, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E20" s="9">
+        <f>C20/D20</f>
+        <v>4.7308137148826621E-3</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2021</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4">
+        <v>837</v>
+      </c>
+      <c r="D21">
+        <f>SUMIF(A:A, A21, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E21" s="9">
+        <f>C21/D21</f>
+        <v>5.6501370343868557E-3</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4">
+        <v>686</v>
+      </c>
+      <c r="D22">
+        <f>SUMIF(A:A, A22, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E22" s="9">
+        <f>C22/D22</f>
+        <v>4.6308172109789519E-3</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="4">
+        <v>594</v>
+      </c>
+      <c r="D23">
+        <f>SUMIF(A:A, A23, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E23" s="9">
+        <f>C23/D23</f>
+        <v>4.4323396634705073E-3</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2016</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="4">
+        <v>531</v>
+      </c>
+      <c r="D24">
+        <f>SUMIF(A:A, A24, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E24" s="9">
+        <f>C24/D24</f>
+        <v>3.9622430324963622E-3</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2021</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="4">
+        <v>488</v>
+      </c>
+      <c r="D25">
+        <f>SUMIF(A:A, A25, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E25" s="9">
+        <f>C25/D25</f>
+        <v>3.2942256544573304E-3</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2016</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="4">
+        <v>484</v>
+      </c>
+      <c r="D26">
+        <f>SUMIF(A:A, A26, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E26" s="9">
+        <f>C26/D26</f>
+        <v>3.6115360220870798E-3</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2021</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="4">
+        <v>427</v>
+      </c>
+      <c r="D27">
+        <f>SUMIF(A:A, A27, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E27" s="9">
+        <f>C27/D27</f>
+        <v>2.8824474476501641E-3</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2016</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="4">
+        <v>305</v>
+      </c>
+      <c r="D28">
+        <f>SUMIF(A:A, A28, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E28" s="9">
+        <f>C28/D28</f>
+        <v>2.2758646420176845E-3</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1972</v>
+      </c>
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4890</v>
+      </c>
+      <c r="D29">
+        <f>SUMIF(A:A, A29, C:C)</f>
+        <v>31879</v>
+      </c>
+      <c r="E29" s="9">
+        <f>C29/D29</f>
+        <v>0.1533925154490417</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1962</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="4">
+        <v>8298</v>
+      </c>
+      <c r="D30">
+        <f>SUMIF(A:A, A30, C:C)</f>
+        <v>26310</v>
+      </c>
+      <c r="E30" s="9">
+        <f>C30/D30</f>
+        <v>0.3153933865450399</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1978</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="4">
+        <v>9167</v>
+      </c>
+      <c r="D31">
+        <f>SUMIF(A:A, A31, C:C)</f>
+        <v>46394</v>
+      </c>
+      <c r="E31" s="9">
+        <f>C31/D31</f>
+        <v>0.19759020563003837</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2021</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4">
+        <v>53713</v>
+      </c>
+      <c r="D32">
+        <f>SUMIF(A:A, A32, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E32" s="9">
+        <f>C32/D32</f>
+        <v>0.36258758724972662</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="4">
+        <v>39742</v>
+      </c>
+      <c r="D33">
+        <f>SUMIF(A:A, A33, C:C)</f>
+        <v>113845</v>
+      </c>
+      <c r="E33" s="9">
+        <f>C33/D33</f>
+        <v>0.34908867319601211</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="4">
+        <v>24412</v>
+      </c>
+      <c r="D34">
+        <f>SUMIF(A:A, A34, C:C)</f>
+        <v>91640</v>
+      </c>
+      <c r="E34" s="9">
+        <f>C34/D34</f>
+        <v>0.26639022261021389</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="4">
+        <v>23559</v>
+      </c>
+      <c r="D35">
+        <f>SUMIF(A:A, A35, C:C)</f>
+        <v>105987</v>
+      </c>
+      <c r="E35" s="9">
+        <f>C35/D35</f>
+        <v>0.22228197797843133</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2016</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="4">
+        <v>29585</v>
+      </c>
+      <c r="D36">
+        <f>SUMIF(A:A, A36, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E36" s="9">
+        <f>C36/D36</f>
+        <v>0.22075887027571542</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1967</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="4">
+        <v>4430</v>
+      </c>
+      <c r="D37">
+        <f>SUMIF(A:A, A37, C:C)</f>
+        <v>20051</v>
+      </c>
+      <c r="E37" s="9">
+        <f>C37/D37</f>
+        <v>0.22093661164031719</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1951</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="4">
+        <v>9709</v>
+      </c>
+      <c r="D38">
+        <f>SUMIF(A:A, A38, C:C)</f>
+        <v>22405</v>
+      </c>
+      <c r="E38" s="9">
+        <f>C38/D38</f>
+        <v>0.43334077214907385</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1985</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="4">
+        <v>15294</v>
+      </c>
+      <c r="D39">
+        <f>SUMIF(A:A, A39, C:C)</f>
+        <v>55922</v>
+      </c>
+      <c r="E39" s="9">
+        <f>C39/D39</f>
+        <v>0.27348807267265118</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1962</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="4">
+        <v>843</v>
+      </c>
+      <c r="D40">
+        <f>SUMIF(A:A, A40, C:C)</f>
+        <v>26310</v>
+      </c>
+      <c r="E40" s="9">
+        <f>C40/D40</f>
+        <v>3.2041049030786771E-2</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2021</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="4">
+        <v>16871</v>
+      </c>
+      <c r="D41">
+        <f>SUMIF(A:A, A41, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E41" s="9">
+        <f>C41/D41</f>
+        <v>0.11388705126301152</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1985</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="4">
+        <v>10409</v>
+      </c>
+      <c r="D42">
+        <f>SUMIF(A:A, A42, C:C)</f>
+        <v>55922</v>
+      </c>
+      <c r="E42" s="9">
+        <f>C42/D42</f>
+        <v>0.18613425843138656</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1967</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4206</v>
+      </c>
+      <c r="D43">
+        <f>SUMIF(A:A, A43, C:C)</f>
+        <v>20051</v>
+      </c>
+      <c r="E43" s="9">
+        <f>C43/D43</f>
+        <v>0.20976509899755624</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="4">
+        <v>17308</v>
+      </c>
+      <c r="D44">
+        <f>SUMIF(A:A, A44, C:C)</f>
+        <v>91640</v>
+      </c>
+      <c r="E44" s="9">
+        <f>C44/D44</f>
+        <v>0.18886948930597991</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2006</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="4">
+        <v>21111</v>
+      </c>
+      <c r="D45">
+        <f>SUMIF(A:A, A45, C:C)</f>
+        <v>105987</v>
+      </c>
+      <c r="E45" s="9">
+        <f>C45/D45</f>
+        <v>0.19918480568371594</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2016</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="4">
+        <v>24287</v>
+      </c>
+      <c r="D46">
+        <f>SUMIF(A:A, A46, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E46" s="9">
+        <f>C46/D46</f>
+        <v>0.18122598216617541</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1978</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="4">
+        <v>4873</v>
+      </c>
+      <c r="D47">
+        <f>SUMIF(A:A, A47, C:C)</f>
+        <v>46394</v>
+      </c>
+      <c r="E47" s="9">
+        <f>C47/D47</f>
+        <v>0.10503513385351554</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1972</v>
+      </c>
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="4">
+        <v>3652</v>
+      </c>
+      <c r="D48">
+        <f>SUMIF(A:A, A48, C:C)</f>
+        <v>31879</v>
+      </c>
+      <c r="E48" s="9">
+        <f>C48/D48</f>
+        <v>0.11455817309200414</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1951</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2287</v>
+      </c>
+      <c r="D49">
+        <f>SUMIF(A:A, A49, C:C)</f>
+        <v>22405</v>
+      </c>
+      <c r="E49" s="9">
+        <f>C49/D49</f>
+        <v>0.10207542959160902</v>
+      </c>
+      <c r="F49" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2011</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="4">
+        <v>15382</v>
+      </c>
+      <c r="D50">
+        <f>SUMIF(A:A, A50, C:C)</f>
+        <v>113845</v>
+      </c>
+      <c r="E50" s="9">
+        <f>C50/D50</f>
+        <v>0.13511353155606307</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1967</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="4">
+        <v>4066</v>
+      </c>
+      <c r="D51">
+        <f>SUMIF(A:A, A51, C:C)</f>
+        <v>20051</v>
+      </c>
+      <c r="E51" s="9">
+        <f>C51/D51</f>
+        <v>0.20278290359583062</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2016</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="4">
+        <v>11344</v>
+      </c>
+      <c r="D52">
+        <f>SUMIF(A:A, A52, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E52" s="9">
+        <f>C52/D52</f>
+        <v>8.4647240980487259E-2</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1972</v>
+      </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="4">
+        <v>3488</v>
+      </c>
+      <c r="D53">
+        <f>SUMIF(A:A, A53, C:C)</f>
+        <v>31879</v>
+      </c>
+      <c r="E53" s="9">
+        <f>C53/D53</f>
+        <v>0.10941372063113648</v>
+      </c>
+      <c r="F53" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2006</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="4">
+        <v>8957</v>
+      </c>
+      <c r="D54">
+        <f>SUMIF(A:A, A54, C:C)</f>
+        <v>105987</v>
+      </c>
+      <c r="E54" s="9">
+        <f>C54/D54</f>
+        <v>8.4510364478662475E-2</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2021</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="4">
+        <v>2908</v>
+      </c>
+      <c r="D55">
+        <f>SUMIF(A:A, A55, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E55" s="9">
+        <f>C55/D55</f>
+        <v>1.9630344678610485E-2</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2011</v>
+      </c>
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="4">
+        <v>10350</v>
+      </c>
+      <c r="D56">
+        <f>SUMIF(A:A, A56, C:C)</f>
+        <v>113845</v>
+      </c>
+      <c r="E56" s="9">
+        <f>C56/D56</f>
+        <v>9.0913083578549783E-2</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1978</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="4">
+        <v>4136</v>
+      </c>
+      <c r="D57">
+        <f>SUMIF(A:A, A57, C:C)</f>
+        <v>46394</v>
+      </c>
+      <c r="E57" s="9">
+        <f>C57/D57</f>
+        <v>8.9149458981764879E-2</v>
+      </c>
+      <c r="F57" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1985</v>
+      </c>
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2061</v>
+      </c>
+      <c r="D58">
+        <f>SUMIF(A:A, A58, C:C)</f>
+        <v>55922</v>
+      </c>
+      <c r="E58" s="9">
+        <f>C58/D58</f>
+        <v>3.6854905046314508E-2</v>
+      </c>
+      <c r="F58" s="9">
+        <f t="shared" si="0"/>
+        <v>5.2294553935450371E-2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2001</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="4">
+        <v>16777</v>
+      </c>
+      <c r="D59">
+        <f>SUMIF(A:A, A59, C:C)</f>
+        <v>91640</v>
+      </c>
+      <c r="E59" s="9">
+        <f>C59/D59</f>
+        <v>0.18307507638585771</v>
+      </c>
+      <c r="F59" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2016</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="4">
+        <v>10367</v>
+      </c>
+      <c r="D60">
+        <f>SUMIF(A:A, A60, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E60" s="9">
+        <f>C60/D60</f>
+        <v>7.7357012274745368E-2</v>
+      </c>
+      <c r="F60" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2001</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="4">
+        <v>2692</v>
+      </c>
+      <c r="D61">
+        <f>SUMIF(A:A, A61, C:C)</f>
+        <v>91640</v>
+      </c>
+      <c r="E61" s="9">
+        <f>C61/D61</f>
+        <v>2.9375818419903971E-2</v>
+      </c>
+      <c r="F61" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2006</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="4">
+        <v>7553</v>
+      </c>
+      <c r="D62">
+        <f>SUMIF(A:A, A62, C:C)</f>
+        <v>105987</v>
+      </c>
+      <c r="E62" s="9">
+        <f>C62/D62</f>
+        <v>7.1263456839046294E-2</v>
+      </c>
+      <c r="F62" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1972</v>
+      </c>
+      <c r="B63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2764</v>
+      </c>
+      <c r="D63">
+        <f>SUMIF(A:A, A63, C:C)</f>
+        <v>31879</v>
+      </c>
+      <c r="E63" s="9">
+        <f>C63/D63</f>
+        <v>8.6702845133159762E-2</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2011</v>
+      </c>
+      <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2386</v>
+      </c>
+      <c r="D64">
+        <f>SUMIF(A:A, A64, C:C)</f>
+        <v>113845</v>
+      </c>
+      <c r="E64" s="9">
+        <f>C64/D64</f>
+        <v>2.0958320523518821E-2</v>
+      </c>
+      <c r="F64" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1978</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="4">
+        <v>2623</v>
+      </c>
+      <c r="D65">
+        <f>SUMIF(A:A, A65, C:C)</f>
+        <v>46394</v>
+      </c>
+      <c r="E65" s="9">
+        <f>C65/D65</f>
+        <v>5.6537483295253696E-2</v>
+      </c>
+      <c r="F65" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1985</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1989</v>
+      </c>
+      <c r="D66">
+        <f>SUMIF(A:A, A66, C:C)</f>
+        <v>55922</v>
+      </c>
+      <c r="E66" s="9">
+        <f>C66/D66</f>
+        <v>3.5567397446443258E-2</v>
+      </c>
+      <c r="F66" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2021</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2549</v>
+      </c>
+      <c r="D67">
+        <f>SUMIF(A:A, A67, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E67" s="9">
+        <f>C67/D67</f>
+        <v>1.7206928674614212E-2</v>
+      </c>
+      <c r="F67" s="9">
+        <f t="shared" ref="F67:F96" si="2">IF(AND(B67=B66, A67&gt;A66), ABS(E67 - E66), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G96" si="3">IF(F67=MAX($F$2:$F$96),"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1967</v>
+      </c>
+      <c r="B68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="4">
+        <v>2318</v>
+      </c>
+      <c r="D68">
+        <f>SUMIF(A:A, A68, C:C)</f>
+        <v>20051</v>
+      </c>
+      <c r="E68" s="9">
+        <f>C68/D68</f>
+        <v>0.11560520672285672</v>
+      </c>
+      <c r="F68" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2021</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="4">
+        <v>2385</v>
+      </c>
+      <c r="D69">
+        <f>SUMIF(A:A, A69, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E69" s="9">
+        <f>C69/D69</f>
+        <v>1.6099852839919535E-2</v>
+      </c>
+      <c r="F69" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2011</v>
+      </c>
+      <c r="B70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1110</v>
+      </c>
+      <c r="D70">
+        <f>SUMIF(A:A, A70, C:C)</f>
+        <v>113845</v>
+      </c>
+      <c r="E70" s="9">
+        <f>C70/D70</f>
+        <v>9.750098818569107E-3</v>
+      </c>
+      <c r="F70" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1985</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1618</v>
+      </c>
+      <c r="D71">
+        <f>SUMIF(A:A, A71, C:C)</f>
+        <v>55922</v>
+      </c>
+      <c r="E71" s="9">
+        <f>C71/D71</f>
+        <v>2.8933156897106686E-2</v>
+      </c>
+      <c r="F71" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2006</v>
+      </c>
+      <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="4">
+        <v>6500</v>
+      </c>
+      <c r="D72">
+        <f>SUMIF(A:A, A72, C:C)</f>
+        <v>105987</v>
+      </c>
+      <c r="E72" s="9">
+        <f>C72/D72</f>
+        <v>6.1328276109334161E-2</v>
+      </c>
+      <c r="F72" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1972</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="4">
+        <v>2647</v>
+      </c>
+      <c r="D73">
+        <f>SUMIF(A:A, A73, C:C)</f>
+        <v>31879</v>
+      </c>
+      <c r="E73" s="9">
+        <f>C73/D73</f>
+        <v>8.3032717462906622E-2</v>
+      </c>
+      <c r="F73" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2001</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1176</v>
+      </c>
+      <c r="D74">
+        <f>SUMIF(A:A, A74, C:C)</f>
+        <v>91640</v>
+      </c>
+      <c r="E74" s="9">
+        <f>C74/D74</f>
+        <v>1.2832824094281972E-2</v>
+      </c>
+      <c r="F74" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2016</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="4">
+        <v>2238</v>
+      </c>
+      <c r="D75">
+        <f>SUMIF(A:A, A75, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E75" s="9">
+        <f>C75/D75</f>
+        <v>1.6699623176510092E-2</v>
+      </c>
+      <c r="F75" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2016</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1411</v>
+      </c>
+      <c r="D76">
+        <f>SUMIF(A:A, A76, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E76" s="9">
+        <f>C76/D76</f>
+        <v>1.052867216356378E-2</v>
+      </c>
+      <c r="F76" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1985</v>
+      </c>
+      <c r="B77" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="4">
+        <v>993</v>
+      </c>
+      <c r="D77">
+        <f>SUMIF(A:A, A77, C:C)</f>
+        <v>55922</v>
+      </c>
+      <c r="E77" s="9">
+        <f>C77/D77</f>
+        <v>1.7756875648224313E-2</v>
+      </c>
+      <c r="F77" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1972</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D78">
+        <f>SUMIF(A:A, A78, C:C)</f>
+        <v>31879</v>
+      </c>
+      <c r="E78" s="9">
+        <f>C78/D78</f>
+        <v>6.3270491546158908E-2</v>
+      </c>
+      <c r="F78" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2021</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="4">
+        <v>2081</v>
+      </c>
+      <c r="D79">
+        <f>SUMIF(A:A, A79, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E79" s="9">
+        <f>C79/D79</f>
+        <v>1.4047712268290378E-2</v>
+      </c>
+      <c r="F79" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2006</v>
+      </c>
+      <c r="B80" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="4">
+        <v>4401</v>
+      </c>
+      <c r="D80">
+        <f>SUMIF(A:A, A80, C:C)</f>
+        <v>105987</v>
+      </c>
+      <c r="E80" s="9">
+        <f>C80/D80</f>
+        <v>4.1523960485719949E-2</v>
+      </c>
+      <c r="F80" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2011</v>
+      </c>
+      <c r="B81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1093</v>
+      </c>
+      <c r="D81">
+        <f>SUMIF(A:A, A81, C:C)</f>
+        <v>113845</v>
+      </c>
+      <c r="E81" s="9">
+        <f>C81/D81</f>
+        <v>9.600772980807238E-3</v>
+      </c>
+      <c r="F81" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2001</v>
+      </c>
+      <c r="B82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="4">
+        <v>839</v>
+      </c>
+      <c r="D82">
+        <f>SUMIF(A:A, A82, C:C)</f>
+        <v>91640</v>
+      </c>
+      <c r="E82" s="9">
+        <f>C82/D82</f>
+        <v>9.1553906591008288E-3</v>
+      </c>
+      <c r="F82" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>1972</v>
+      </c>
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1061</v>
+      </c>
+      <c r="D83">
+        <f>SUMIF(A:A, A83, C:C)</f>
+        <v>31879</v>
+      </c>
+      <c r="E83" s="9">
+        <f>C83/D83</f>
+        <v>3.3282097932808431E-2</v>
+      </c>
+      <c r="F83" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2006</v>
+      </c>
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="4">
+        <v>3573</v>
+      </c>
+      <c r="D84">
+        <f>SUMIF(A:A, A84, C:C)</f>
+        <v>105987</v>
+      </c>
+      <c r="E84" s="9">
+        <f>C84/D84</f>
+        <v>3.3711681621330918E-2</v>
+      </c>
+      <c r="F84" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2016</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1199</v>
+      </c>
+      <c r="D85">
+        <f>SUMIF(A:A, A85, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E85" s="9">
+        <f>C85/D85</f>
+        <v>8.9467596910793572E-3</v>
+      </c>
+      <c r="F85" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2016</v>
+      </c>
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1199</v>
+      </c>
+      <c r="D86">
+        <f>SUMIF(A:A, A86, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E86" s="9">
+        <f>C86/D86</f>
+        <v>8.9467596910793572E-3</v>
+      </c>
+      <c r="F86" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2021</v>
+      </c>
+      <c r="B87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1324</v>
+      </c>
+      <c r="D87">
+        <f>SUMIF(A:A, A87, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E87" s="9">
+        <f>C87/D87</f>
+        <v>8.9376122264375104E-3</v>
+      </c>
+      <c r="F87" s="9">
+        <f t="shared" si="2"/>
+        <v>9.1474646418468475E-6</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2011</v>
+      </c>
+      <c r="B88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="4">
+        <v>661</v>
+      </c>
+      <c r="D88">
+        <f>SUMIF(A:A, A88, C:C)</f>
+        <v>113845</v>
+      </c>
+      <c r="E88" s="9">
+        <f>C88/D88</f>
+        <v>5.8061399270938558E-3</v>
+      </c>
+      <c r="F88" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>1985</v>
+      </c>
+      <c r="B89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="4">
+        <v>752</v>
+      </c>
+      <c r="D89">
+        <f>SUMIF(A:A, A89, C:C)</f>
+        <v>55922</v>
+      </c>
+      <c r="E89" s="9">
+        <f>C89/D89</f>
+        <v>1.344730159865527E-2</v>
+      </c>
+      <c r="F89" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2001</v>
+      </c>
+      <c r="B90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="4">
+        <v>369</v>
+      </c>
+      <c r="D90">
+        <f>SUMIF(A:A, A90, C:C)</f>
+        <v>91640</v>
+      </c>
+      <c r="E90" s="9">
+        <f>C90/D90</f>
+        <v>4.0266259275425582E-3</v>
+      </c>
+      <c r="F90" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2021</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1245</v>
+      </c>
+      <c r="D91">
+        <f>SUMIF(A:A, A91, C:C)</f>
+        <v>148138</v>
+      </c>
+      <c r="E91" s="9">
+        <f>C91/D91</f>
+        <v>8.4043256963101977E-3</v>
+      </c>
+      <c r="F91" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2001</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="4">
+        <v>316</v>
+      </c>
+      <c r="D92">
+        <f>SUMIF(A:A, A92, C:C)</f>
+        <v>91640</v>
+      </c>
+      <c r="E92" s="9">
+        <f>C92/D92</f>
+        <v>3.4482758620689655E-3</v>
+      </c>
+      <c r="F92" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2011</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="4">
+        <v>571</v>
+      </c>
+      <c r="D93">
+        <f>SUMIF(A:A, A93, C:C)</f>
+        <v>113845</v>
+      </c>
+      <c r="E93" s="9">
+        <f>C93/D93</f>
+        <v>5.0155913742369008E-3</v>
+      </c>
+      <c r="F93" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5673155121679353E-3</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2006</v>
+      </c>
+      <c r="B94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1080</v>
+      </c>
+      <c r="D94">
+        <f>SUMIF(A:A, A94, C:C)</f>
+        <v>105987</v>
+      </c>
+      <c r="E94" s="9">
+        <f>C94/D94</f>
+        <v>1.0189928953550908E-2</v>
+      </c>
+      <c r="F94" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>1985</v>
+      </c>
+      <c r="B95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="4">
+        <v>619</v>
+      </c>
+      <c r="D95">
+        <f>SUMIF(A:A, A95, C:C)</f>
+        <v>55922</v>
+      </c>
+      <c r="E95" s="9">
+        <f>C95/D95</f>
+        <v>1.1068988948893101E-2</v>
+      </c>
+      <c r="F95" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2016</v>
+      </c>
+      <c r="B96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1140</v>
+      </c>
+      <c r="D96">
+        <f>SUMIF(A:A, A96, C:C)</f>
+        <v>134015</v>
+      </c>
+      <c r="E96" s="9">
+        <f>C96/D96</f>
+        <v>8.5065104652464283E-3</v>
+      </c>
+      <c r="F96" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G96" xr:uid="{ECE36265-D5E3-4991-ADB9-18E3C9C01DD7}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F96">
+    <sortCondition ref="B2:B96"/>
+    <sortCondition ref="A2:A96"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>